--- a/data/hw_3_2_data.xlsx
+++ b/data/hw_3_2_data.xlsx
@@ -8853,7 +8853,7 @@
         <v>34028</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01066906042956672</v>
+        <v>0.01066792613032685</v>
       </c>
     </row>
     <row r="3">
@@ -8861,7 +8861,7 @@
         <v>34059</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02239907282152442</v>
+        <v>0.02239944874948163</v>
       </c>
     </row>
     <row r="4">
@@ -8869,7 +8869,7 @@
         <v>34089</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02558780706467811</v>
+        <v>-0.0255878759143775</v>
       </c>
     </row>
     <row r="5">
@@ -8877,7 +8877,7 @@
         <v>34120</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02696942249625356</v>
+        <v>0.02696912261324225</v>
       </c>
     </row>
     <row r="6">
@@ -8885,7 +8885,7 @@
         <v>34150</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003607233174711011</v>
+        <v>0.003607741550743615</v>
       </c>
     </row>
     <row r="7">
@@ -8893,7 +8893,7 @@
         <v>34181</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.004854205136553102</v>
+        <v>-0.004854275986019174</v>
       </c>
     </row>
     <row r="8">
@@ -8901,7 +8901,7 @@
         <v>34212</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03832744011970513</v>
+        <v>0.0383273591666129</v>
       </c>
     </row>
     <row r="9">
@@ -8909,7 +8909,7 @@
         <v>34242</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.007275675302239493</v>
+        <v>-0.007275814134317105</v>
       </c>
     </row>
     <row r="10">
@@ -8917,7 +8917,7 @@
         <v>34273</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01972708654233823</v>
+        <v>0.01972835441333221</v>
       </c>
     </row>
     <row r="11">
@@ -8925,7 +8925,7 @@
         <v>34303</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.01067286017483893</v>
+        <v>-0.01067471191768077</v>
       </c>
     </row>
     <row r="12">
@@ -8933,7 +8933,7 @@
         <v>34334</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01227697631614189</v>
+        <v>0.01227747276973212</v>
       </c>
     </row>
     <row r="13">
@@ -8941,7 +8941,7 @@
         <v>34365</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0348757312865815</v>
+        <v>0.03487546020538246</v>
       </c>
     </row>
     <row r="14">
@@ -8949,7 +8949,7 @@
         <v>34393</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02916423371456123</v>
+        <v>-0.02916371218797686</v>
       </c>
     </row>
     <row r="15">
@@ -8957,7 +8957,7 @@
         <v>34424</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.04190099173575279</v>
+        <v>-0.04190098598268366</v>
       </c>
     </row>
     <row r="16">
@@ -8965,7 +8965,7 @@
         <v>34454</v>
       </c>
       <c r="B16" t="n">
-        <v>0.011211918260154</v>
+        <v>0.01121191665341681</v>
       </c>
     </row>
     <row r="17">
@@ -8973,7 +8973,7 @@
         <v>34485</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01593943740794579</v>
+        <v>0.01593922257317715</v>
       </c>
     </row>
     <row r="18">
@@ -8981,7 +8981,7 @@
         <v>34515</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02291416115427791</v>
+        <v>-0.02291451148703771</v>
       </c>
     </row>
     <row r="19">
@@ -8989,7 +8989,7 @@
         <v>34546</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0323259585609843</v>
+        <v>0.03232654346694197</v>
       </c>
     </row>
     <row r="20">
@@ -8997,7 +8997,7 @@
         <v>34577</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03812119797744074</v>
+        <v>0.03812105441084856</v>
       </c>
     </row>
     <row r="21">
@@ -9005,7 +9005,7 @@
         <v>34607</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02525521077181592</v>
+        <v>-0.02525447808222359</v>
       </c>
     </row>
     <row r="22">
@@ -9013,7 +9013,7 @@
         <v>34638</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02842684763678704</v>
+        <v>0.02842580126088312</v>
       </c>
     </row>
     <row r="23">
@@ -9021,7 +9021,7 @@
         <v>34668</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03981623409461932</v>
+        <v>-0.03981551378061932</v>
       </c>
     </row>
     <row r="24">
@@ -9029,7 +9029,7 @@
         <v>34699</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007282858463991682</v>
+        <v>0.007282370533539639</v>
       </c>
     </row>
     <row r="25">
@@ -9037,7 +9037,7 @@
         <v>34730</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03360732067992456</v>
+        <v>0.03360800768066841</v>
       </c>
     </row>
     <row r="26">
@@ -9045,7 +9045,7 @@
         <v>34758</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04080952254982884</v>
+        <v>0.04080896369505704</v>
       </c>
     </row>
     <row r="27">
@@ -9053,7 +9053,7 @@
         <v>34789</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02784841781848146</v>
+        <v>0.02784758407898646</v>
       </c>
     </row>
     <row r="28">
@@ -9061,7 +9061,7 @@
         <v>34819</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02962264851957275</v>
+        <v>0.02962360071511672</v>
       </c>
     </row>
     <row r="29">
@@ -9069,7 +9069,7 @@
         <v>34850</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03967198788853854</v>
+        <v>0.03967270242259957</v>
       </c>
     </row>
     <row r="30">
@@ -9077,7 +9077,7 @@
         <v>34880</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02022993330399614</v>
+        <v>0.02022979843796113</v>
       </c>
     </row>
     <row r="31">
@@ -9085,7 +9085,7 @@
         <v>34911</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03216632997820579</v>
+        <v>0.03216471146684707</v>
       </c>
     </row>
     <row r="32">
@@ -9093,7 +9093,7 @@
         <v>34942</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004451513523416661</v>
+        <v>0.004452178353014702</v>
       </c>
     </row>
     <row r="33">
@@ -9101,7 +9101,7 @@
         <v>34972</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04237670471961064</v>
+        <v>0.04237616065094785</v>
       </c>
     </row>
     <row r="34">
@@ -9109,7 +9109,7 @@
         <v>35003</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.002939377071890292</v>
+        <v>-0.002938326104820144</v>
       </c>
     </row>
     <row r="35">
@@ -9117,7 +9117,7 @@
         <v>35033</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04447976168150869</v>
+        <v>0.04447953170926211</v>
       </c>
     </row>
     <row r="36">
@@ -9125,7 +9125,7 @@
         <v>35064</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01573366711179225</v>
+        <v>0.0157331584508178</v>
       </c>
     </row>
     <row r="37">
@@ -9133,7 +9133,7 @@
         <v>35095</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03557769500863017</v>
+        <v>0.03557800422186475</v>
       </c>
     </row>
     <row r="38">
@@ -9141,7 +9141,7 @@
         <v>35124</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00319058377485737</v>
+        <v>0.003190487664251895</v>
       </c>
     </row>
     <row r="39">
@@ -9149,7 +9149,7 @@
         <v>35155</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01721787076221259</v>
+        <v>0.01721748919200516</v>
       </c>
     </row>
     <row r="40">
@@ -9157,7 +9157,7 @@
         <v>35185</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01086988257415</v>
+        <v>0.01086960514293778</v>
       </c>
     </row>
     <row r="41">
@@ -9165,7 +9165,7 @@
         <v>35216</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02269969848148778</v>
+        <v>0.02270055393656079</v>
       </c>
     </row>
     <row r="42">
@@ -9173,7 +9173,7 @@
         <v>35246</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008822096958249981</v>
+        <v>0.00882182284693056</v>
       </c>
     </row>
     <row r="43">
@@ -9181,7 +9181,7 @@
         <v>35277</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.04493610364005751</v>
+        <v>-0.04493584083842861</v>
       </c>
     </row>
     <row r="44">
@@ -9189,7 +9189,7 @@
         <v>35308</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01925872835168319</v>
+        <v>0.01925948296884195</v>
       </c>
     </row>
     <row r="45">
@@ -9197,7 +9197,7 @@
         <v>35338</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05587260627940394</v>
+        <v>0.05587181748580439</v>
       </c>
     </row>
     <row r="46">
@@ -9205,7 +9205,7 @@
         <v>35369</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03233115208085868</v>
+        <v>0.03233158853651186</v>
       </c>
     </row>
     <row r="47">
@@ -9213,7 +9213,7 @@
         <v>35399</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07300464313179744</v>
+        <v>0.07300392499162123</v>
       </c>
     </row>
     <row r="48">
@@ -9221,7 +9221,7 @@
         <v>35430</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02379743361554365</v>
+        <v>-0.02379759602487952</v>
       </c>
     </row>
     <row r="49">
@@ -9229,7 +9229,7 @@
         <v>35461</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0617859335754658</v>
+        <v>0.06178611615745644</v>
       </c>
     </row>
     <row r="50">
@@ -9237,7 +9237,7 @@
         <v>35489</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00956578984723544</v>
+        <v>0.009565638265920162</v>
       </c>
     </row>
     <row r="51">
@@ -9245,7 +9245,7 @@
         <v>35520</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.04412306101258145</v>
+        <v>-0.04412277119985109</v>
       </c>
     </row>
     <row r="52">
@@ -9253,7 +9253,7 @@
         <v>35550</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06260306547121552</v>
+        <v>0.06260330336035858</v>
       </c>
     </row>
     <row r="53">
@@ -9261,7 +9261,7 @@
         <v>35581</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06320767487652224</v>
+        <v>0.06320736222744383</v>
       </c>
     </row>
     <row r="54">
@@ -9269,7 +9269,7 @@
         <v>35611</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04110235926455674</v>
+        <v>0.04110250252589864</v>
       </c>
     </row>
     <row r="55">
@@ -9277,7 +9277,7 @@
         <v>35642</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0792638283482352</v>
+        <v>0.07926382300448953</v>
       </c>
     </row>
     <row r="56">
@@ -9285,7 +9285,7 @@
         <v>35673</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.05180336302775812</v>
+        <v>-0.0518035471895647</v>
       </c>
     </row>
     <row r="57">
@@ -9293,7 +9293,7 @@
         <v>35703</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04809029961152023</v>
+        <v>0.04809030594776975</v>
       </c>
     </row>
     <row r="58">
@@ -9301,7 +9301,7 @@
         <v>35734</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.02450261185112756</v>
+        <v>-0.02450292921092456</v>
       </c>
     </row>
     <row r="59">
@@ -9309,7 +9309,7 @@
         <v>35764</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03869568926589784</v>
+        <v>0.03869731758797301</v>
       </c>
     </row>
     <row r="60">
@@ -9317,7 +9317,7 @@
         <v>35795</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0190719364769194</v>
+        <v>0.01907073653130742</v>
       </c>
     </row>
     <row r="61">
@@ -9325,7 +9325,7 @@
         <v>35826</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01287908306811358</v>
+        <v>0.01287871861236178</v>
       </c>
     </row>
     <row r="62">
@@ -9333,7 +9333,7 @@
         <v>35854</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06929342918524806</v>
+        <v>0.06929351843593756</v>
       </c>
     </row>
     <row r="63">
@@ -9341,7 +9341,7 @@
         <v>35885</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04878428778759503</v>
+        <v>0.04878430423902369</v>
       </c>
     </row>
     <row r="64">
@@ -9349,7 +9349,7 @@
         <v>35915</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01279092960819384</v>
+        <v>0.01279093372101281</v>
       </c>
     </row>
     <row r="65">
@@ -9357,7 +9357,7 @@
         <v>35946</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.02076927936822159</v>
+        <v>-0.02076822769225428</v>
       </c>
     </row>
     <row r="66">
@@ -9365,7 +9365,7 @@
         <v>35976</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04257347674279366</v>
+        <v>0.0425726880359194</v>
       </c>
     </row>
     <row r="67">
@@ -9373,7 +9373,7 @@
         <v>36007</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01351363678298179</v>
+        <v>-0.01351311849089931</v>
       </c>
     </row>
     <row r="68">
@@ -9381,7 +9381,7 @@
         <v>36038</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.1411794609961033</v>
+        <v>-0.1411800698308701</v>
       </c>
     </row>
     <row r="69">
@@ -9389,7 +9389,7 @@
         <v>36068</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06363918885520126</v>
+        <v>0.06363901700674712</v>
       </c>
     </row>
     <row r="70">
@@ -9397,7 +9397,7 @@
         <v>36099</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08108120854840384</v>
+        <v>0.08108158162366763</v>
       </c>
     </row>
     <row r="71">
@@ -9405,7 +9405,7 @@
         <v>36129</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05568191043902027</v>
+        <v>0.05568169763079545</v>
       </c>
     </row>
     <row r="72">
@@ -9413,7 +9413,7 @@
         <v>36160</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06542256622250053</v>
+        <v>0.06542207545136858</v>
       </c>
     </row>
     <row r="73">
@@ -9421,7 +9421,7 @@
         <v>36191</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0352252135064246</v>
+        <v>0.03522627746341289</v>
       </c>
     </row>
     <row r="74">
@@ -9429,7 +9429,7 @@
         <v>36219</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.03206817514301996</v>
+        <v>-0.032068711722821</v>
       </c>
     </row>
     <row r="75">
@@ -9437,7 +9437,7 @@
         <v>36250</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04146750609613559</v>
+        <v>0.04146770274870915</v>
       </c>
     </row>
     <row r="76">
@@ -9445,7 +9445,7 @@
         <v>36280</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03797472944412639</v>
+        <v>0.03797454813982704</v>
       </c>
     </row>
     <row r="77">
@@ -9453,7 +9453,7 @@
         <v>36311</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.02286603312255175</v>
+        <v>-0.02286577510973287</v>
       </c>
     </row>
     <row r="78">
@@ -9461,7 +9461,7 @@
         <v>36341</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05537882277736328</v>
+        <v>0.05537881782764043</v>
       </c>
     </row>
     <row r="79">
@@ -9469,7 +9469,7 @@
         <v>36372</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.03102213534223264</v>
+        <v>-0.03102170926823322</v>
       </c>
     </row>
     <row r="80">
@@ -9477,7 +9477,7 @@
         <v>36403</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.005179016766428735</v>
+        <v>-0.005179363653208147</v>
       </c>
     </row>
     <row r="81">
@@ -9485,7 +9485,7 @@
         <v>36433</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02233670213167849</v>
+        <v>-0.02233731319680554</v>
       </c>
     </row>
     <row r="82">
@@ -9493,7 +9493,7 @@
         <v>36464</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06407741514577348</v>
+        <v>0.06407825270375311</v>
       </c>
     </row>
     <row r="83">
@@ -9501,7 +9501,7 @@
         <v>36494</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01665164555491083</v>
+        <v>0.0166515554783857</v>
       </c>
     </row>
     <row r="84">
@@ -9509,7 +9509,7 @@
         <v>36525</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05710896052810166</v>
+        <v>0.05710878015970544</v>
       </c>
     </row>
     <row r="85">
@@ -9517,7 +9517,7 @@
         <v>36556</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.04978712503280747</v>
+        <v>-0.04978712112050332</v>
       </c>
     </row>
     <row r="86">
@@ -9525,7 +9525,7 @@
         <v>36585</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.01522584806734917</v>
+        <v>-0.01522592950613377</v>
       </c>
     </row>
     <row r="87">
@@ -9533,7 +9533,7 @@
         <v>36616</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09691406326759822</v>
+        <v>0.0969139792910465</v>
       </c>
     </row>
     <row r="88">
@@ -9541,7 +9541,7 @@
         <v>36646</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.03512026009200475</v>
+        <v>-0.03512056900910465</v>
       </c>
     </row>
     <row r="89">
@@ -9549,7 +9549,7 @@
         <v>36677</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01572258154763151</v>
+        <v>-0.01572274647245864</v>
       </c>
     </row>
     <row r="90">
@@ -9557,7 +9557,7 @@
         <v>36707</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01968159753097942</v>
+        <v>0.0196827371925854</v>
       </c>
     </row>
     <row r="91">
@@ -9565,7 +9565,7 @@
         <v>36738</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.01570224922956809</v>
+        <v>-0.01570303109118576</v>
       </c>
     </row>
     <row r="92">
@@ -9573,7 +9573,7 @@
         <v>36769</v>
       </c>
       <c r="B92" t="n">
-        <v>0.065340435863666</v>
+        <v>0.06534133508679907</v>
       </c>
     </row>
     <row r="93">
@@ -9581,7 +9581,7 @@
         <v>36799</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.05486186883557409</v>
+        <v>-0.05486243886890252</v>
       </c>
     </row>
     <row r="94">
@@ -9589,7 +9589,7 @@
         <v>36830</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.004677501282643548</v>
+        <v>-0.004678059647394206</v>
       </c>
     </row>
     <row r="95">
@@ -9597,7 +9597,7 @@
         <v>36860</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.07465318071019256</v>
+        <v>-0.07465242117682525</v>
       </c>
     </row>
     <row r="96">
@@ -9605,7 +9605,7 @@
         <v>36891</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.005226802216577786</v>
+        <v>-0.005227060678644868</v>
       </c>
     </row>
     <row r="97">
@@ -9613,7 +9613,7 @@
         <v>36922</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04445948871927508</v>
+        <v>0.04445957578105086</v>
       </c>
     </row>
     <row r="98">
@@ -9621,7 +9621,7 @@
         <v>36950</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.09538739741711999</v>
+        <v>-0.09538747282183757</v>
       </c>
     </row>
     <row r="99">
@@ -9629,7 +9629,7 @@
         <v>36981</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.05603734760430923</v>
+        <v>-0.0560372554589883</v>
       </c>
     </row>
     <row r="100">
@@ -9637,7 +9637,7 @@
         <v>37011</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08543995567478513</v>
+        <v>0.08544004494994906</v>
       </c>
     </row>
     <row r="101">
@@ -9645,7 +9645,7 @@
         <v>37042</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.005605531085647097</v>
+        <v>-0.005605709940730508</v>
       </c>
     </row>
     <row r="102">
@@ -9653,7 +9653,7 @@
         <v>37072</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02382958395879187</v>
+        <v>-0.02382922220427519</v>
       </c>
     </row>
     <row r="103">
@@ -9661,7 +9661,7 @@
         <v>37103</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.01019610175645447</v>
+        <v>-0.01019563474633489</v>
       </c>
     </row>
     <row r="104">
@@ -9669,7 +9669,7 @@
         <v>37134</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.05933208962942449</v>
+        <v>-0.05933325645601029</v>
       </c>
     </row>
     <row r="105">
@@ -9677,7 +9677,7 @@
         <v>37164</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.08163023043059392</v>
+        <v>-0.08163006391178318</v>
       </c>
     </row>
     <row r="106">
@@ -9685,7 +9685,7 @@
         <v>37195</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01302161011729108</v>
+        <v>0.01302237138283258</v>
       </c>
     </row>
     <row r="107">
@@ -9693,7 +9693,7 @@
         <v>37225</v>
       </c>
       <c r="B107" t="n">
-        <v>0.07797748547559591</v>
+        <v>0.07797701594953543</v>
       </c>
     </row>
     <row r="108">
@@ -9701,7 +9701,7 @@
         <v>37256</v>
       </c>
       <c r="B108" t="n">
-        <v>0.005639435687334826</v>
+        <v>0.005639038249991124</v>
       </c>
     </row>
     <row r="109">
@@ -9709,7 +9709,7 @@
         <v>37287</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.009799214760466857</v>
+        <v>-0.009798625682415518</v>
       </c>
     </row>
     <row r="110">
@@ -9717,7 +9717,7 @@
         <v>37315</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.01793589716252764</v>
+        <v>-0.01793609107999061</v>
       </c>
     </row>
     <row r="111">
@@ -9725,7 +9725,7 @@
         <v>37346</v>
       </c>
       <c r="B111" t="n">
-        <v>0.033271213243105</v>
+        <v>0.03327049965306017</v>
       </c>
     </row>
     <row r="112">
@@ -9733,7 +9733,7 @@
         <v>37376</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.05815582223474713</v>
+        <v>-0.05815546372830827</v>
       </c>
     </row>
     <row r="113">
@@ -9741,7 +9741,7 @@
         <v>37407</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.005934002235233327</v>
+        <v>-0.005933690706619532</v>
       </c>
     </row>
     <row r="114">
@@ -9749,7 +9749,7 @@
         <v>37437</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.07380752564100679</v>
+        <v>-0.07380751790024942</v>
       </c>
     </row>
     <row r="115">
@@ -9757,7 +9757,7 @@
         <v>37468</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.07881931426323552</v>
+        <v>-0.07881947519095422</v>
       </c>
     </row>
     <row r="116">
@@ -9765,7 +9765,7 @@
         <v>37499</v>
       </c>
       <c r="B116" t="n">
-        <v>0.006800403092473539</v>
+        <v>0.006801202516673044</v>
       </c>
     </row>
     <row r="117">
@@ -9773,7 +9773,7 @@
         <v>37529</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.104851846570167</v>
+        <v>-0.1048523802279586</v>
       </c>
     </row>
     <row r="118">
@@ -9781,7 +9781,7 @@
         <v>37560</v>
       </c>
       <c r="B118" t="n">
-        <v>0.08228369984832185</v>
+        <v>0.08228355223024564</v>
       </c>
     </row>
     <row r="119">
@@ -9797,7 +9797,7 @@
         <v>37621</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.05657007413147375</v>
+        <v>-0.05656995542805221</v>
       </c>
     </row>
     <row r="121">
@@ -9805,7 +9805,7 @@
         <v>37652</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.02459438255198099</v>
+        <v>-0.02459456818916295</v>
       </c>
     </row>
     <row r="122">
@@ -9813,7 +9813,7 @@
         <v>37680</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.01347912711801935</v>
+        <v>-0.01347887000006065</v>
       </c>
     </row>
     <row r="123">
@@ -9821,7 +9821,7 @@
         <v>37711</v>
       </c>
       <c r="B123" t="n">
-        <v>0.002139758689561955</v>
+        <v>0.002139823647934413</v>
       </c>
     </row>
     <row r="124">
@@ -9829,7 +9829,7 @@
         <v>37741</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08461201279013264</v>
+        <v>0.08461192547185181</v>
       </c>
     </row>
     <row r="125">
@@ -9837,7 +9837,7 @@
         <v>37772</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0548360382798696</v>
+        <v>0.05483584793748975</v>
       </c>
     </row>
     <row r="126">
@@ -9845,7 +9845,7 @@
         <v>37802</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01065175755140046</v>
+        <v>0.01065152946237369</v>
       </c>
     </row>
     <row r="127">
@@ -9853,7 +9853,7 @@
         <v>37833</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0180272731396609</v>
+        <v>0.01802716436558094</v>
       </c>
     </row>
     <row r="128">
@@ -9861,7 +9861,7 @@
         <v>37864</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02062568959023303</v>
+        <v>0.02062591813767289</v>
       </c>
     </row>
     <row r="129">
@@ -9869,7 +9869,7 @@
         <v>37894</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.01090604209067592</v>
+        <v>-0.0109060432751189</v>
       </c>
     </row>
     <row r="130">
@@ -9877,7 +9877,7 @@
         <v>37925</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05352628435148876</v>
+        <v>0.05352672943596248</v>
       </c>
     </row>
     <row r="131">
@@ -9885,7 +9885,7 @@
         <v>37955</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01092174814256186</v>
+        <v>0.01092101516612543</v>
       </c>
     </row>
     <row r="132">
@@ -9893,7 +9893,7 @@
         <v>37986</v>
       </c>
       <c r="B132" t="n">
-        <v>0.05031252342237447</v>
+        <v>0.05031336894790073</v>
       </c>
     </row>
     <row r="133">
@@ -9901,7 +9901,7 @@
         <v>38017</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01977059571612716</v>
+        <v>0.0197697045273042</v>
       </c>
     </row>
     <row r="134">
@@ -9909,7 +9909,7 @@
         <v>38046</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01357009742690818</v>
+        <v>0.01357048897999369</v>
       </c>
     </row>
     <row r="135">
@@ -9917,7 +9917,7 @@
         <v>38077</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.01324568027024509</v>
+        <v>-0.013245301661026</v>
       </c>
     </row>
     <row r="136">
@@ -9925,7 +9925,7 @@
         <v>38107</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.01892108981627683</v>
+        <v>-0.01892166180245947</v>
       </c>
     </row>
     <row r="137">
@@ -9933,7 +9933,7 @@
         <v>38138</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01712304645846818</v>
+        <v>0.01712364008385792</v>
       </c>
     </row>
     <row r="138">
@@ -9941,7 +9941,7 @@
         <v>38168</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0185014707565907</v>
+        <v>0.01850088672626526</v>
       </c>
     </row>
     <row r="139">
@@ -9949,7 +9949,7 @@
         <v>38199</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.03221867171450066</v>
+        <v>-0.03221811270170116</v>
       </c>
     </row>
     <row r="140">
@@ -9957,7 +9957,7 @@
         <v>38230</v>
       </c>
       <c r="B140" t="n">
-        <v>0.002436383483237714</v>
+        <v>0.002435599994481397</v>
       </c>
     </row>
     <row r="141">
@@ -9965,7 +9965,7 @@
         <v>38260</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01003702696524322</v>
+        <v>0.01003703186376215</v>
       </c>
     </row>
     <row r="142">
@@ -9973,7 +9973,7 @@
         <v>38291</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01288448408574006</v>
+        <v>0.01288507014541262</v>
       </c>
     </row>
     <row r="143">
@@ -9981,7 +9981,7 @@
         <v>38321</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04451766180354189</v>
+        <v>0.04451746673686263</v>
       </c>
     </row>
     <row r="144">
@@ -9989,7 +9989,7 @@
         <v>38352</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03012062059337306</v>
+        <v>0.0301206233446889</v>
       </c>
     </row>
     <row r="145">
@@ -9997,7 +9997,7 @@
         <v>38383</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.02242045820923633</v>
+        <v>-0.02242054886970624</v>
       </c>
     </row>
     <row r="146">
@@ -10005,7 +10005,7 @@
         <v>38411</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02090357383681729</v>
+        <v>0.02090384974720227</v>
       </c>
     </row>
     <row r="147">
@@ -10013,7 +10013,7 @@
         <v>38442</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.0182926352518632</v>
+        <v>-0.01829307787054679</v>
       </c>
     </row>
     <row r="148">
@@ -10021,7 +10021,7 @@
         <v>38472</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.01873539881788633</v>
+        <v>-0.01873504358284461</v>
       </c>
     </row>
     <row r="149">
@@ -10029,7 +10029,7 @@
         <v>38503</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03222488466341633</v>
+        <v>0.03222460796629467</v>
       </c>
     </row>
     <row r="150">
@@ -10037,7 +10037,7 @@
         <v>38533</v>
       </c>
       <c r="B150" t="n">
-        <v>0.00151453308419347</v>
+        <v>0.001514980255219012</v>
       </c>
     </row>
     <row r="151">
@@ -10045,7 +10045,7 @@
         <v>38564</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03826215026821567</v>
+        <v>0.03826142969812252</v>
       </c>
     </row>
     <row r="152">
@@ -10053,7 +10053,7 @@
         <v>38595</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.009374790545638279</v>
+        <v>-0.0093746235190173</v>
       </c>
     </row>
     <row r="153">
@@ -10061,7 +10061,7 @@
         <v>38625</v>
       </c>
       <c r="B153" t="n">
-        <v>0.008025220063145655</v>
+        <v>0.008025483077351181</v>
       </c>
     </row>
     <row r="154">
@@ -10069,7 +10069,7 @@
         <v>38656</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.02365095549798257</v>
+        <v>-0.02365078542798871</v>
       </c>
     </row>
     <row r="155">
@@ -10077,7 +10077,7 @@
         <v>38686</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04395257658323382</v>
+        <v>0.04395230829801311</v>
       </c>
     </row>
     <row r="156">
@@ -10085,7 +10085,7 @@
         <v>38717</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.001913439327830946</v>
+        <v>-0.001913439650920501</v>
       </c>
     </row>
     <row r="157">
@@ -10093,7 +10093,7 @@
         <v>38748</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02401375201573752</v>
+        <v>0.02401426360775272</v>
       </c>
     </row>
     <row r="158">
@@ -10101,7 +10101,7 @@
         <v>38776</v>
       </c>
       <c r="B158" t="n">
-        <v>0.005725901806611811</v>
+        <v>0.005725156473677551</v>
       </c>
     </row>
     <row r="159">
@@ -10109,7 +10109,7 @@
         <v>38807</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01650389977711209</v>
+        <v>0.01650423509208654</v>
       </c>
     </row>
     <row r="160">
@@ -10117,7 +10117,7 @@
         <v>38837</v>
       </c>
       <c r="B160" t="n">
-        <v>0.01263142142841045</v>
+        <v>0.01263190725364649</v>
       </c>
     </row>
     <row r="161">
@@ -10125,7 +10125,7 @@
         <v>38868</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.03012100827220598</v>
+        <v>-0.03012115584066777</v>
       </c>
     </row>
     <row r="162">
@@ -10133,7 +10133,7 @@
         <v>38898</v>
       </c>
       <c r="B162" t="n">
-        <v>0.002608482677728396</v>
+        <v>0.002608317492066137</v>
       </c>
     </row>
     <row r="163">
@@ -10141,7 +10141,7 @@
         <v>38929</v>
       </c>
       <c r="B163" t="n">
-        <v>0.004478419649674548</v>
+        <v>0.004478337225291895</v>
       </c>
     </row>
     <row r="164">
@@ -10149,7 +10149,7 @@
         <v>38960</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02182237717381952</v>
+        <v>0.02182270393804808</v>
       </c>
     </row>
     <row r="165">
@@ -10157,7 +10157,7 @@
         <v>38990</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02700142904254155</v>
+        <v>0.02700142040787212</v>
       </c>
     </row>
     <row r="166">
@@ -10165,7 +10165,7 @@
         <v>39021</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03151698968381034</v>
+        <v>0.0315166684921202</v>
       </c>
     </row>
     <row r="167">
@@ -10173,7 +10173,7 @@
         <v>39051</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01988515575062699</v>
+        <v>0.01988530668274602</v>
       </c>
     </row>
     <row r="168">
@@ -10181,7 +10181,7 @@
         <v>39082</v>
       </c>
       <c r="B168" t="n">
-        <v>0.01337113178094507</v>
+        <v>0.01337083382354787</v>
       </c>
     </row>
     <row r="169">
@@ -10189,7 +10189,7 @@
         <v>39113</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01504053393336879</v>
+        <v>0.01504075518484949</v>
       </c>
     </row>
     <row r="170">
@@ -10197,7 +10197,7 @@
         <v>39141</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.01961755031499135</v>
+        <v>-0.01961762084013607</v>
       </c>
     </row>
     <row r="171">
@@ -10205,7 +10205,7 @@
         <v>39172</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01158897683877602</v>
+        <v>0.01158868333550034</v>
       </c>
     </row>
     <row r="172">
@@ -10213,7 +10213,7 @@
         <v>39202</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0442956569978199</v>
+        <v>0.04429588745549595</v>
       </c>
     </row>
     <row r="173">
@@ -10221,7 +10221,7 @@
         <v>39233</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03391991962818031</v>
+        <v>0.03392061656925693</v>
       </c>
     </row>
     <row r="174">
@@ -10229,7 +10229,7 @@
         <v>39263</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.01462093748828552</v>
+        <v>-0.01462146608602777</v>
       </c>
     </row>
     <row r="175">
@@ -10237,7 +10237,7 @@
         <v>39294</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.03130995490460564</v>
+        <v>-0.03131002094656898</v>
       </c>
     </row>
     <row r="176">
@@ -10245,7 +10245,7 @@
         <v>39325</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0128328392762469</v>
+        <v>0.0128331207969401</v>
       </c>
     </row>
     <row r="177">
@@ -10253,7 +10253,7 @@
         <v>39355</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03871430265953801</v>
+        <v>0.03871415292191505</v>
       </c>
     </row>
     <row r="178">
@@ -10261,7 +10261,7 @@
         <v>39386</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01356661646602464</v>
+        <v>0.01356708294036046</v>
       </c>
     </row>
     <row r="179">
@@ -10269,7 +10269,7 @@
         <v>39416</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.03873245060825126</v>
+        <v>-0.03873315363347685</v>
       </c>
     </row>
     <row r="180">
@@ -10277,7 +10277,7 @@
         <v>39447</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.01126072526044042</v>
+        <v>-0.01126045215662197</v>
       </c>
     </row>
     <row r="181">
@@ -10285,7 +10285,7 @@
         <v>39478</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.06046119088629354</v>
+        <v>-0.0604609741553167</v>
       </c>
     </row>
     <row r="182">
@@ -10293,7 +10293,7 @@
         <v>39507</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.02584227864461397</v>
+        <v>-0.02584278648797955</v>
       </c>
     </row>
     <row r="183">
@@ -10301,7 +10301,7 @@
         <v>39538</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.00894253227991626</v>
+        <v>-0.008942078391709685</v>
       </c>
     </row>
     <row r="184">
@@ -10309,7 +10309,7 @@
         <v>39568</v>
       </c>
       <c r="B184" t="n">
-        <v>0.04766261323432541</v>
+        <v>0.04766206272676721</v>
       </c>
     </row>
     <row r="185">
@@ -10317,7 +10317,7 @@
         <v>39599</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01511624830993852</v>
+        <v>0.01511654392724693</v>
       </c>
     </row>
     <row r="186">
@@ -10325,7 +10325,7 @@
         <v>39629</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.08357572176080941</v>
+        <v>-0.08357571574438971</v>
       </c>
     </row>
     <row r="187">
@@ -10333,7 +10333,7 @@
         <v>39660</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.008985571272565607</v>
+        <v>-0.008986041883226825</v>
       </c>
     </row>
     <row r="188">
@@ -10341,7 +10341,7 @@
         <v>39691</v>
       </c>
       <c r="B188" t="n">
-        <v>0.01545334545453692</v>
+        <v>0.01545406496434976</v>
       </c>
     </row>
     <row r="189">
@@ -10349,7 +10349,7 @@
         <v>39721</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.09417348568211659</v>
+        <v>-0.09417384657140015</v>
       </c>
     </row>
     <row r="190">
@@ -10357,7 +10357,7 @@
         <v>39752</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1651871015043144</v>
+        <v>-0.1651865125208304</v>
       </c>
     </row>
     <row r="191">
@@ -10365,7 +10365,7 @@
         <v>39782</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.06960603547532584</v>
+        <v>-0.06960661171766425</v>
       </c>
     </row>
     <row r="192">
@@ -10373,7 +10373,7 @@
         <v>39813</v>
       </c>
       <c r="B192" t="n">
-        <v>0.009796396667469898</v>
+        <v>0.009796285719230857</v>
       </c>
     </row>
     <row r="193">
@@ -10381,7 +10381,7 @@
         <v>39844</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.08211446036036441</v>
+        <v>-0.08211408483077753</v>
       </c>
     </row>
     <row r="194">
@@ -10389,7 +10389,7 @@
         <v>39872</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1074492555700055</v>
+        <v>-0.1074493431165795</v>
       </c>
     </row>
     <row r="195">
@@ -10397,7 +10397,7 @@
         <v>39903</v>
       </c>
       <c r="B195" t="n">
-        <v>0.08331137261907307</v>
+        <v>0.0833111546927825</v>
       </c>
     </row>
     <row r="196">
@@ -10405,7 +10405,7 @@
         <v>39933</v>
       </c>
       <c r="B196" t="n">
-        <v>0.09934600260370896</v>
+        <v>0.09934587880621581</v>
       </c>
     </row>
     <row r="197">
@@ -10413,7 +10413,7 @@
         <v>39964</v>
       </c>
       <c r="B197" t="n">
-        <v>0.05845321432094508</v>
+        <v>0.05845322090336991</v>
       </c>
     </row>
     <row r="198">
@@ -10421,7 +10421,7 @@
         <v>39994</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.0006545187754966042</v>
+        <v>-0.0006547316275911097</v>
       </c>
     </row>
     <row r="199">
@@ -10429,7 +10429,7 @@
         <v>40025</v>
       </c>
       <c r="B199" t="n">
-        <v>0.07460534944725494</v>
+        <v>0.07460579911865262</v>
       </c>
     </row>
     <row r="200">
@@ -10437,7 +10437,7 @@
         <v>40056</v>
       </c>
       <c r="B200" t="n">
-        <v>0.03693964778915415</v>
+        <v>0.03693954505979757</v>
       </c>
     </row>
     <row r="201">
@@ -10445,7 +10445,7 @@
         <v>40086</v>
       </c>
       <c r="B201" t="n">
-        <v>0.03545728851004726</v>
+        <v>0.03545719296951622</v>
       </c>
     </row>
     <row r="202">
@@ -10453,7 +10453,7 @@
         <v>40117</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.01922533778500146</v>
+        <v>-0.01922524728996911</v>
       </c>
     </row>
     <row r="203">
@@ -10461,7 +10461,7 @@
         <v>40147</v>
       </c>
       <c r="B203" t="n">
-        <v>0.06160680963764786</v>
+        <v>0.06160709187044433</v>
       </c>
     </row>
     <row r="204">
@@ -10469,7 +10469,7 @@
         <v>40178</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01910083802610574</v>
+        <v>0.01910065571187491</v>
       </c>
     </row>
     <row r="205">
@@ -10477,7 +10477,7 @@
         <v>40209</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.03634226861676804</v>
+        <v>-0.03634252632801838</v>
       </c>
     </row>
     <row r="206">
@@ -10485,7 +10485,7 @@
         <v>40237</v>
       </c>
       <c r="B206" t="n">
-        <v>0.03119460038826993</v>
+        <v>0.03119469625464033</v>
       </c>
     </row>
     <row r="207">
@@ -10493,7 +10493,7 @@
         <v>40268</v>
       </c>
       <c r="B207" t="n">
-        <v>0.06087972361844218</v>
+        <v>0.06087981645266716</v>
       </c>
     </row>
     <row r="208">
@@ -10501,7 +10501,7 @@
         <v>40298</v>
       </c>
       <c r="B208" t="n">
-        <v>0.01547017279154672</v>
+        <v>0.01546992533608993</v>
       </c>
     </row>
     <row r="209">
@@ -10509,7 +10509,7 @@
         <v>40329</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.07945466412204749</v>
+        <v>-0.07945443979835176</v>
       </c>
     </row>
     <row r="210">
@@ -10517,7 +10517,7 @@
         <v>40359</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.05174121837504519</v>
+        <v>-0.05174104189588735</v>
       </c>
     </row>
     <row r="211">
@@ -10525,7 +10525,7 @@
         <v>40390</v>
       </c>
       <c r="B211" t="n">
-        <v>0.06830112862796711</v>
+        <v>0.06830083675362197</v>
       </c>
     </row>
     <row r="212">
@@ -10533,7 +10533,7 @@
         <v>40421</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.04498056383560756</v>
+        <v>-0.04498074196356538</v>
       </c>
     </row>
     <row r="213">
@@ -10541,7 +10541,7 @@
         <v>40451</v>
       </c>
       <c r="B213" t="n">
-        <v>0.08955465920856676</v>
+        <v>0.08955468371274922</v>
       </c>
     </row>
     <row r="214">
@@ -10549,7 +10549,7 @@
         <v>40482</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0382022731507734</v>
+        <v>0.03820203161206259</v>
       </c>
     </row>
     <row r="215">
@@ -10565,7 +10565,7 @@
         <v>40543</v>
       </c>
       <c r="B216" t="n">
-        <v>0.06685208469498183</v>
+        <v>0.06685211703692229</v>
       </c>
     </row>
     <row r="217">
@@ -10573,7 +10573,7 @@
         <v>40574</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0232999444803943</v>
+        <v>0.02330055967052802</v>
       </c>
     </row>
     <row r="218">
@@ -10581,7 +10581,7 @@
         <v>40602</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03473759886886318</v>
+        <v>0.03473722445196903</v>
       </c>
     </row>
     <row r="219">
@@ -10589,7 +10589,7 @@
         <v>40633</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0001199144581647271</v>
+        <v>0.0001201999945181775</v>
       </c>
     </row>
     <row r="220">
@@ -10597,7 +10597,7 @@
         <v>40663</v>
       </c>
       <c r="B220" t="n">
-        <v>0.02896150757793481</v>
+        <v>0.02896150551097842</v>
       </c>
     </row>
     <row r="221">
@@ -10605,7 +10605,7 @@
         <v>40694</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.01121459207880215</v>
+        <v>-0.01121459130095459</v>
       </c>
     </row>
     <row r="222">
@@ -10613,7 +10613,7 @@
         <v>40724</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.01686964866180596</v>
+        <v>-0.01686992806637533</v>
       </c>
     </row>
     <row r="223">
@@ -10621,7 +10621,7 @@
         <v>40755</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.02000458071149436</v>
+        <v>-0.02000429959086814</v>
       </c>
     </row>
     <row r="224">
@@ -10629,7 +10629,7 @@
         <v>40786</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.05497556592976149</v>
+        <v>-0.05497570754138303</v>
       </c>
     </row>
     <row r="225">
@@ -10637,7 +10637,7 @@
         <v>40816</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06942083624329587</v>
+        <v>-0.06942061046389347</v>
       </c>
     </row>
     <row r="226">
@@ -10645,7 +10645,7 @@
         <v>40847</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1091472604316137</v>
+        <v>0.1091467456195443</v>
       </c>
     </row>
     <row r="227">
@@ -10653,7 +10653,7 @@
         <v>40877</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.004063706788499766</v>
+        <v>-0.004063558716034921</v>
       </c>
     </row>
     <row r="228">
@@ -10661,7 +10661,7 @@
         <v>40908</v>
       </c>
       <c r="B228" t="n">
-        <v>0.01044819611283665</v>
+        <v>0.01044804778408892</v>
       </c>
     </row>
     <row r="229">
@@ -10669,7 +10669,7 @@
         <v>40939</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04637440195672893</v>
+        <v>0.04637486075043706</v>
       </c>
     </row>
     <row r="230">
@@ -10677,7 +10677,7 @@
         <v>40968</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0434056312763087</v>
+        <v>0.04340555423748471</v>
       </c>
     </row>
     <row r="231">
@@ -10685,7 +10685,7 @@
         <v>40999</v>
       </c>
       <c r="B231" t="n">
-        <v>0.03216366362959344</v>
+        <v>0.03216366144451066</v>
       </c>
     </row>
     <row r="232">
@@ -10693,7 +10693,7 @@
         <v>41029</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.006675731312625555</v>
+        <v>-0.006675928331380532</v>
       </c>
     </row>
     <row r="233">
@@ -10701,7 +10701,7 @@
         <v>41060</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.06005579105343362</v>
+        <v>-0.06005560022701273</v>
       </c>
     </row>
     <row r="234">
@@ -10709,7 +10709,7 @@
         <v>41090</v>
       </c>
       <c r="B234" t="n">
-        <v>0.04058130497538825</v>
+        <v>0.04058116112382604</v>
       </c>
     </row>
     <row r="235">
@@ -10717,7 +10717,7 @@
         <v>41121</v>
       </c>
       <c r="B235" t="n">
-        <v>0.01182983465058962</v>
+        <v>0.01182963221351852</v>
       </c>
     </row>
     <row r="236">
@@ -10725,7 +10725,7 @@
         <v>41152</v>
       </c>
       <c r="B236" t="n">
-        <v>0.02505255227709569</v>
+        <v>0.02505275984895139</v>
       </c>
     </row>
     <row r="237">
@@ -10733,7 +10733,7 @@
         <v>41182</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0253507904980208</v>
+        <v>0.02535079215387714</v>
       </c>
     </row>
     <row r="238">
@@ -10741,7 +10741,7 @@
         <v>41213</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.01819855580627572</v>
+        <v>-0.0181982384514916</v>
       </c>
     </row>
     <row r="239">
@@ -10749,7 +10749,7 @@
         <v>41243</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0056599262338346</v>
+        <v>0.005659535463387932</v>
       </c>
     </row>
     <row r="240">
@@ -10757,7 +10757,7 @@
         <v>41274</v>
       </c>
       <c r="B240" t="n">
-        <v>0.008934318753436754</v>
+        <v>0.008934577980050262</v>
       </c>
     </row>
     <row r="241">
@@ -10765,7 +10765,7 @@
         <v>41305</v>
       </c>
       <c r="B241" t="n">
-        <v>0.05119023471401962</v>
+        <v>0.05119042000838214</v>
       </c>
     </row>
     <row r="242">
@@ -10773,7 +10773,7 @@
         <v>41333</v>
       </c>
       <c r="B242" t="n">
-        <v>0.01275881952981761</v>
+        <v>0.01275887648205987</v>
       </c>
     </row>
     <row r="243">
@@ -10781,7 +10781,7 @@
         <v>41364</v>
       </c>
       <c r="B243" t="n">
-        <v>0.03797150533319948</v>
+        <v>0.03797089098179773</v>
       </c>
     </row>
     <row r="244">
@@ -10789,7 +10789,7 @@
         <v>41394</v>
       </c>
       <c r="B244" t="n">
-        <v>0.01921213977237923</v>
+        <v>0.01921225995814901</v>
       </c>
     </row>
     <row r="245">
@@ -10797,7 +10797,7 @@
         <v>41425</v>
       </c>
       <c r="B245" t="n">
-        <v>0.02360950144205898</v>
+        <v>0.02360961767999359</v>
       </c>
     </row>
     <row r="246">
@@ -10805,7 +10805,7 @@
         <v>41455</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.01334392122889705</v>
+        <v>-0.01334447591747434</v>
       </c>
     </row>
     <row r="247">
@@ -10813,7 +10813,7 @@
         <v>41486</v>
       </c>
       <c r="B247" t="n">
-        <v>0.05167609197614875</v>
+        <v>0.05167702053311651</v>
       </c>
     </row>
     <row r="248">
@@ -10821,7 +10821,7 @@
         <v>41517</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.02999204565622271</v>
+        <v>-0.02999235677615253</v>
       </c>
     </row>
     <row r="249">
@@ -10829,7 +10829,7 @@
         <v>41547</v>
       </c>
       <c r="B249" t="n">
-        <v>0.0316466055385225</v>
+        <v>0.03164627488178184</v>
       </c>
     </row>
     <row r="250">
@@ -10837,7 +10837,7 @@
         <v>41578</v>
       </c>
       <c r="B250" t="n">
-        <v>0.04630651909651928</v>
+        <v>0.04630685445206861</v>
       </c>
     </row>
     <row r="251">
@@ -10845,7 +10845,7 @@
         <v>41608</v>
       </c>
       <c r="B251" t="n">
-        <v>0.02963779914771214</v>
+        <v>0.02963790125723365</v>
       </c>
     </row>
     <row r="252">
@@ -10853,7 +10853,7 @@
         <v>41639</v>
       </c>
       <c r="B252" t="n">
-        <v>0.02592649633897848</v>
+        <v>0.02592619625687576</v>
       </c>
     </row>
     <row r="253">
@@ -10861,7 +10861,7 @@
         <v>41670</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.03524829883147518</v>
+        <v>-0.03524801565341174</v>
       </c>
     </row>
     <row r="254">
@@ -10869,7 +10869,7 @@
         <v>41698</v>
       </c>
       <c r="B254" t="n">
-        <v>0.04551569228154895</v>
+        <v>0.04551558752517049</v>
       </c>
     </row>
     <row r="255">
@@ -10877,7 +10877,7 @@
         <v>41729</v>
       </c>
       <c r="B255" t="n">
-        <v>0.008295866250300099</v>
+        <v>0.008295674582391666</v>
       </c>
     </row>
     <row r="256">
@@ -10885,7 +10885,7 @@
         <v>41759</v>
       </c>
       <c r="B256" t="n">
-        <v>0.006951340521305305</v>
+        <v>0.006951436888180229</v>
       </c>
     </row>
     <row r="257">
@@ -10893,7 +10893,7 @@
         <v>41790</v>
       </c>
       <c r="B257" t="n">
-        <v>0.02320637369663658</v>
+        <v>0.02320647027641742</v>
       </c>
     </row>
     <row r="258">
@@ -10909,7 +10909,7 @@
         <v>41851</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.01343764094044964</v>
+        <v>-0.0134375505577965</v>
       </c>
     </row>
     <row r="260">
@@ -10917,7 +10917,7 @@
         <v>41882</v>
       </c>
       <c r="B260" t="n">
-        <v>0.03946343673316455</v>
+        <v>0.03946361634520645</v>
       </c>
     </row>
     <row r="261">
@@ -10925,7 +10925,7 @@
         <v>41912</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.01379630489767725</v>
+        <v>-0.01379621311427293</v>
       </c>
     </row>
     <row r="262">
@@ -10933,7 +10933,7 @@
         <v>41943</v>
       </c>
       <c r="B262" t="n">
-        <v>0.02355093591658486</v>
+        <v>0.02355048065515697</v>
       </c>
     </row>
     <row r="263">
@@ -10941,7 +10941,7 @@
         <v>41973</v>
       </c>
       <c r="B263" t="n">
-        <v>0.02747201751134742</v>
+        <v>0.02747210722226145</v>
       </c>
     </row>
     <row r="264">
@@ -10949,7 +10949,7 @@
         <v>42004</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.002536500918694506</v>
+        <v>-0.002536585896446453</v>
       </c>
     </row>
     <row r="265">
@@ -10957,7 +10957,7 @@
         <v>42035</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.02962914181597665</v>
+        <v>-0.02962905914634395</v>
       </c>
     </row>
     <row r="266">
@@ -10965,7 +10965,7 @@
         <v>42063</v>
       </c>
       <c r="B266" t="n">
-        <v>0.0562046055223846</v>
+        <v>0.05620478111266647</v>
       </c>
     </row>
     <row r="267">
@@ -10973,7 +10973,7 @@
         <v>42094</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.01570563602946584</v>
+        <v>-0.01570579966489705</v>
       </c>
     </row>
     <row r="268">
@@ -10981,7 +10981,7 @@
         <v>42124</v>
       </c>
       <c r="B268" t="n">
-        <v>0.009833729781823619</v>
+        <v>0.009833560882690495</v>
       </c>
     </row>
     <row r="269">
@@ -10989,7 +10989,7 @@
         <v>42155</v>
       </c>
       <c r="B269" t="n">
-        <v>0.01285609297738932</v>
+        <v>0.01285634600926766</v>
       </c>
     </row>
     <row r="270">
@@ -10997,7 +10997,7 @@
         <v>42185</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.02031215954538645</v>
+        <v>-0.02031215786829843</v>
       </c>
     </row>
     <row r="271">
@@ -11005,7 +11005,7 @@
         <v>42216</v>
       </c>
       <c r="B271" t="n">
-        <v>0.02258959571283281</v>
+        <v>0.02258925669871914</v>
       </c>
     </row>
     <row r="272">
@@ -11013,7 +11013,7 @@
         <v>42247</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.06095022668066308</v>
+        <v>-0.06095007691872789</v>
       </c>
     </row>
     <row r="273">
@@ -11021,7 +11021,7 @@
         <v>42277</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.02551605031541038</v>
+        <v>-0.02551605255483058</v>
       </c>
     </row>
     <row r="274">
@@ -11029,7 +11029,7 @@
         <v>42308</v>
       </c>
       <c r="B274" t="n">
-        <v>0.08505974748257561</v>
+        <v>0.08505993526976452</v>
       </c>
     </row>
     <row r="275">
@@ -11037,7 +11037,7 @@
         <v>42338</v>
       </c>
       <c r="B275" t="n">
-        <v>0.003655036895661379</v>
+        <v>0.003654787583317276</v>
       </c>
     </row>
     <row r="276">
@@ -11045,7 +11045,7 @@
         <v>42369</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.01728230048264967</v>
+        <v>-0.01728205523896331</v>
       </c>
     </row>
     <row r="277">
@@ -11053,7 +11053,7 @@
         <v>42400</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.04978675514623254</v>
+        <v>-0.04978683511153081</v>
       </c>
     </row>
     <row r="278">
@@ -11061,7 +11061,7 @@
         <v>42429</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.0008258635122606606</v>
+        <v>-0.0008260406411640941</v>
       </c>
     </row>
     <row r="279">
@@ -11069,7 +11069,7 @@
         <v>42460</v>
       </c>
       <c r="B279" t="n">
-        <v>0.06726596357506498</v>
+        <v>0.06726606413733172</v>
       </c>
     </row>
     <row r="280">
@@ -11077,7 +11077,7 @@
         <v>42490</v>
       </c>
       <c r="B280" t="n">
-        <v>0.003941191820392875</v>
+        <v>0.003941358250006077</v>
       </c>
     </row>
     <row r="281">
@@ -11085,7 +11085,7 @@
         <v>42521</v>
       </c>
       <c r="B281" t="n">
-        <v>0.01701167309123619</v>
+        <v>0.0170115062337497</v>
       </c>
     </row>
     <row r="282">
@@ -11093,7 +11093,7 @@
         <v>42551</v>
       </c>
       <c r="B282" t="n">
-        <v>0.003476041311645472</v>
+        <v>0.003475797570317463</v>
       </c>
     </row>
     <row r="283">
@@ -11101,7 +11101,7 @@
         <v>42582</v>
       </c>
       <c r="B283" t="n">
-        <v>0.03647089588025998</v>
+        <v>0.03647131300358275</v>
       </c>
     </row>
     <row r="284">
@@ -11109,7 +11109,7 @@
         <v>42613</v>
       </c>
       <c r="B284" t="n">
-        <v>0.001197431891417633</v>
+        <v>0.001197666419635812</v>
       </c>
     </row>
     <row r="285">
@@ -11117,7 +11117,7 @@
         <v>42643</v>
       </c>
       <c r="B285" t="n">
-        <v>5.842909168851662e-05</v>
+        <v>5.788227729031092e-05</v>
       </c>
     </row>
     <row r="286">
@@ -11125,7 +11125,7 @@
         <v>42674</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.01733735127032887</v>
+        <v>-0.01733704289609594</v>
       </c>
     </row>
     <row r="287">
@@ -11133,7 +11133,7 @@
         <v>42704</v>
       </c>
       <c r="B287" t="n">
-        <v>0.0368385454874387</v>
+        <v>0.03683854255924257</v>
       </c>
     </row>
     <row r="288">
@@ -11141,7 +11141,7 @@
         <v>42735</v>
       </c>
       <c r="B288" t="n">
-        <v>0.02027180301499243</v>
+        <v>0.02027157147150271</v>
       </c>
     </row>
     <row r="289">
@@ -11149,7 +11149,7 @@
         <v>42766</v>
       </c>
       <c r="B289" t="n">
-        <v>0.01789464572507238</v>
+        <v>0.01789487383405386</v>
       </c>
     </row>
     <row r="290">
@@ -11157,7 +11157,7 @@
         <v>42794</v>
       </c>
       <c r="B290" t="n">
-        <v>0.03929153886453318</v>
+        <v>0.03929146214512835</v>
       </c>
     </row>
     <row r="291">
@@ -11173,7 +11173,7 @@
         <v>42855</v>
       </c>
       <c r="B292" t="n">
-        <v>0.00992613639023876</v>
+        <v>0.009926278269207112</v>
       </c>
     </row>
     <row r="293">
@@ -11181,7 +11181,7 @@
         <v>42886</v>
       </c>
       <c r="B293" t="n">
-        <v>0.01411293239899902</v>
+        <v>0.01411286017411095</v>
       </c>
     </row>
     <row r="294">
@@ -11189,7 +11189,7 @@
         <v>42916</v>
       </c>
       <c r="B294" t="n">
-        <v>0.006375124988190262</v>
+        <v>0.006374916752468263</v>
       </c>
     </row>
     <row r="295">
@@ -11197,7 +11197,7 @@
         <v>42947</v>
       </c>
       <c r="B295" t="n">
-        <v>0.0205543186768018</v>
+        <v>0.02055439033210038</v>
       </c>
     </row>
     <row r="296">
@@ -11205,7 +11205,7 @@
         <v>42978</v>
       </c>
       <c r="B296" t="n">
-        <v>0.002917444415805104</v>
+        <v>0.002917512052330595</v>
       </c>
     </row>
     <row r="297">
@@ -11213,7 +11213,7 @@
         <v>43008</v>
       </c>
       <c r="B297" t="n">
-        <v>0.02014960891800621</v>
+        <v>0.0201495416744164</v>
       </c>
     </row>
     <row r="298">
@@ -11221,7 +11221,7 @@
         <v>43039</v>
       </c>
       <c r="B298" t="n">
-        <v>0.0235639716070648</v>
+        <v>0.02356410499114237</v>
       </c>
     </row>
     <row r="299">
@@ -11229,7 +11229,7 @@
         <v>43069</v>
       </c>
       <c r="B299" t="n">
-        <v>0.03056577783544978</v>
+        <v>0.03056571146913223</v>
       </c>
     </row>
     <row r="300">
@@ -11237,7 +11237,7 @@
         <v>43100</v>
       </c>
       <c r="B300" t="n">
-        <v>0.01212784985694015</v>
+        <v>0.01212803732080636</v>
       </c>
     </row>
     <row r="301">
@@ -11245,7 +11245,7 @@
         <v>43131</v>
       </c>
       <c r="B301" t="n">
-        <v>0.05635954732083692</v>
+        <v>0.0563588577510763</v>
       </c>
     </row>
     <row r="302">
@@ -11253,7 +11253,7 @@
         <v>43159</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.03636036449259705</v>
+        <v>-0.03636026460278485</v>
       </c>
     </row>
     <row r="303">
@@ -11261,7 +11261,7 @@
         <v>43190</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.02741082023459018</v>
+        <v>-0.02741034500514594</v>
       </c>
     </row>
     <row r="304">
@@ -11269,7 +11269,7 @@
         <v>43220</v>
       </c>
       <c r="B304" t="n">
-        <v>0.005168197621869597</v>
+        <v>0.005168072257601075</v>
       </c>
     </row>
     <row r="305">
@@ -11277,7 +11277,7 @@
         <v>43251</v>
       </c>
       <c r="B305" t="n">
-        <v>0.02430901488848303</v>
+        <v>0.02430926304537517</v>
       </c>
     </row>
     <row r="306">
@@ -11285,7 +11285,7 @@
         <v>43281</v>
       </c>
       <c r="B306" t="n">
-        <v>0.005750887850206832</v>
+        <v>0.005750765323180085</v>
       </c>
     </row>
     <row r="307">
@@ -11293,7 +11293,7 @@
         <v>43312</v>
       </c>
       <c r="B307" t="n">
-        <v>0.03704667679054907</v>
+        <v>0.03704667232860492</v>
       </c>
     </row>
     <row r="308">
@@ -11301,7 +11301,7 @@
         <v>43343</v>
       </c>
       <c r="B308" t="n">
-        <v>0.03191988387068156</v>
+        <v>0.03191976402495489</v>
       </c>
     </row>
     <row r="309">
@@ -11317,7 +11317,7 @@
         <v>43404</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.06910439623941234</v>
+        <v>-0.06910428435844829</v>
       </c>
     </row>
     <row r="311">
@@ -11325,7 +11325,7 @@
         <v>43434</v>
       </c>
       <c r="B311" t="n">
-        <v>0.01854956443858358</v>
+        <v>0.01854920165011054</v>
       </c>
     </row>
     <row r="312">
@@ -11333,7 +11333,7 @@
         <v>43465</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08804842761751941</v>
+        <v>-0.08804844839652481</v>
       </c>
     </row>
     <row r="313">
@@ -11341,7 +11341,7 @@
         <v>43496</v>
       </c>
       <c r="B313" t="n">
-        <v>0.08006547142498999</v>
+        <v>0.08006568622966714</v>
       </c>
     </row>
     <row r="314">
@@ -11349,7 +11349,7 @@
         <v>43524</v>
       </c>
       <c r="B314" t="n">
-        <v>0.03241596273597369</v>
+        <v>0.03241602457689274</v>
       </c>
     </row>
     <row r="315">
@@ -11365,7 +11365,7 @@
         <v>43585</v>
       </c>
       <c r="B316" t="n">
-        <v>0.04085239815052044</v>
+        <v>0.0408522841764829</v>
       </c>
     </row>
     <row r="317">
@@ -11373,7 +11373,7 @@
         <v>43616</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.06377111118216483</v>
+        <v>-0.06377100866446062</v>
       </c>
     </row>
     <row r="318">
@@ -11381,7 +11381,7 @@
         <v>43646</v>
       </c>
       <c r="B318" t="n">
-        <v>0.069586688067099</v>
+        <v>0.06958633718920848</v>
       </c>
     </row>
     <row r="319">
@@ -11389,7 +11389,7 @@
         <v>43677</v>
       </c>
       <c r="B319" t="n">
-        <v>0.01511927678539005</v>
+        <v>0.01511960979535698</v>
       </c>
     </row>
     <row r="320">
@@ -11397,7 +11397,7 @@
         <v>43708</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.01674344863141675</v>
+        <v>-0.01674355635274127</v>
       </c>
     </row>
     <row r="321">
@@ -11405,7 +11405,7 @@
         <v>43738</v>
       </c>
       <c r="B321" t="n">
-        <v>0.01945807195177807</v>
+        <v>0.01945785497216801</v>
       </c>
     </row>
     <row r="322">
@@ -11413,7 +11413,7 @@
         <v>43769</v>
       </c>
       <c r="B322" t="n">
-        <v>0.02210461056491031</v>
+        <v>0.02210461769130267</v>
       </c>
     </row>
     <row r="323">
@@ -11421,7 +11421,7 @@
         <v>43799</v>
       </c>
       <c r="B323" t="n">
-        <v>0.03619798843054745</v>
+        <v>0.0361984204103889</v>
       </c>
     </row>
     <row r="324">
@@ -11429,7 +11429,7 @@
         <v>43830</v>
       </c>
       <c r="B324" t="n">
-        <v>0.02905555076966726</v>
+        <v>0.02905544635388413</v>
       </c>
     </row>
     <row r="325">
@@ -11437,7 +11437,7 @@
         <v>43861</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.0004036792195719618</v>
+        <v>-0.0004037778222146793</v>
       </c>
     </row>
     <row r="326">
@@ -11445,7 +11445,7 @@
         <v>43890</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.0791658043671386</v>
+        <v>-0.07916561489130436</v>
       </c>
     </row>
     <row r="327">
@@ -11453,7 +11453,7 @@
         <v>43921</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.1248713319633739</v>
+        <v>-0.1248714257097162</v>
       </c>
     </row>
     <row r="328">
@@ -11461,7 +11461,7 @@
         <v>43951</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1269837704459202</v>
+        <v>0.1269834032212822</v>
       </c>
     </row>
     <row r="329">
@@ -11469,7 +11469,7 @@
         <v>43982</v>
       </c>
       <c r="B329" t="n">
-        <v>0.04764485162325194</v>
+        <v>0.04764530161143488</v>
       </c>
     </row>
     <row r="330">
@@ -11477,7 +11477,7 @@
         <v>44012</v>
       </c>
       <c r="B330" t="n">
-        <v>0.0177345291615576</v>
+        <v>0.01773452732291037</v>
       </c>
     </row>
     <row r="331">
@@ -11485,7 +11485,7 @@
         <v>44043</v>
       </c>
       <c r="B331" t="n">
-        <v>0.05889230332915729</v>
+        <v>0.05889209359078751</v>
       </c>
     </row>
     <row r="332">
@@ -11493,7 +11493,7 @@
         <v>44074</v>
       </c>
       <c r="B332" t="n">
-        <v>0.06979667217369645</v>
+        <v>0.06979667888840657</v>
       </c>
     </row>
     <row r="333">
@@ -11501,7 +11501,7 @@
         <v>44104</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.03744354480233592</v>
+        <v>-0.03744345824228201</v>
       </c>
     </row>
     <row r="334">
@@ -11517,7 +11517,7 @@
         <v>44165</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1087767632415282</v>
+        <v>0.1087766674271138</v>
       </c>
     </row>
     <row r="336">
@@ -11525,7 +11525,7 @@
         <v>44196</v>
       </c>
       <c r="B336" t="n">
-        <v>0.03704832533408497</v>
+        <v>0.03704841495012845</v>
       </c>
     </row>
     <row r="337">
@@ -11533,7 +11533,7 @@
         <v>44227</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.01019035557210624</v>
+        <v>-0.01019043889948856</v>
       </c>
     </row>
     <row r="338">
@@ -11541,7 +11541,7 @@
         <v>44255</v>
       </c>
       <c r="B338" t="n">
-        <v>0.02780546537443418</v>
+        <v>0.02780555190051182</v>
       </c>
     </row>
     <row r="339">
@@ -11549,7 +11549,7 @@
         <v>44286</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0453992688748075</v>
+        <v>0.04539918696703116</v>
       </c>
     </row>
     <row r="340">
@@ -11557,7 +11557,7 @@
         <v>44316</v>
       </c>
       <c r="B340" t="n">
-        <v>0.05291047036595886</v>
+        <v>0.05291055286224955</v>
       </c>
     </row>
     <row r="341">
@@ -11565,7 +11565,7 @@
         <v>44347</v>
       </c>
       <c r="B341" t="n">
-        <v>0.006566094891002461</v>
+        <v>0.0065660204775424</v>
       </c>
     </row>
     <row r="342">
@@ -11573,7 +11573,7 @@
         <v>44377</v>
       </c>
       <c r="B342" t="n">
-        <v>0.02242740210873828</v>
+        <v>0.02242740376675223</v>
       </c>
     </row>
     <row r="343">
@@ -11581,7 +11581,7 @@
         <v>44408</v>
       </c>
       <c r="B343" t="n">
-        <v>0.02441251956339952</v>
+        <v>0.02441259363498305</v>
       </c>
     </row>
     <row r="344">
@@ -11589,7 +11589,7 @@
         <v>44439</v>
       </c>
       <c r="B344" t="n">
-        <v>0.02975974651002722</v>
+        <v>0.02975981709330844</v>
       </c>
     </row>
     <row r="345">
@@ -11597,7 +11597,7 @@
         <v>44469</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.04660543040931331</v>
+        <v>-0.04660542721481675</v>
       </c>
     </row>
     <row r="346">
@@ -11605,7 +11605,7 @@
         <v>44500</v>
       </c>
       <c r="B346" t="n">
-        <v>0.07016361012490369</v>
+        <v>0.07016346129236251</v>
       </c>
     </row>
     <row r="347">
@@ -11613,7 +11613,7 @@
         <v>44530</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.008034784975785136</v>
+        <v>-0.008034785515565801</v>
       </c>
     </row>
     <row r="348">
@@ -11621,7 +11621,7 @@
         <v>44561</v>
       </c>
       <c r="B348" t="n">
-        <v>0.04624765935215835</v>
+        <v>0.04624779793353184</v>
       </c>
     </row>
     <row r="349">
@@ -11629,7 +11629,7 @@
         <v>44592</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.05274124343668385</v>
+        <v>-0.05274130475366112</v>
       </c>
     </row>
     <row r="350">
